--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.25579231746126</v>
+        <v>90.18654910204053</v>
       </c>
       <c r="D2" t="n">
-        <v>3.420565322638688</v>
+        <v>2.946538522112923</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.38240033671308</v>
+        <v>88.59720096138589</v>
       </c>
       <c r="D3" t="n">
-        <v>3.676515959986113</v>
+        <v>2.999346197898735</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.6458612862334</v>
+        <v>87.96475339059727</v>
       </c>
       <c r="D4" t="n">
-        <v>3.341730014447024</v>
+        <v>3.290295040915071</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.77788042052401</v>
+        <v>87.15102684986906</v>
       </c>
       <c r="D5" t="n">
-        <v>3.266880834735036</v>
+        <v>3.129651520485544</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.75383409405772</v>
+        <v>85.66167146451677</v>
       </c>
       <c r="D6" t="n">
-        <v>2.949647530392266</v>
+        <v>3.122093076324134</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.56518135877155</v>
+        <v>84.93889087643191</v>
       </c>
       <c r="D7" t="n">
-        <v>3.331297782462123</v>
+        <v>3.090520440820369</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.14849334199826</v>
+        <v>83.88468163667655</v>
       </c>
       <c r="D8" t="n">
-        <v>3.323252879345878</v>
+        <v>3.166687342293895</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.37745623181789</v>
+        <v>82.91024025863986</v>
       </c>
       <c r="D9" t="n">
-        <v>3.53706253495001</v>
+        <v>2.728283590917886</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.18388770519988</v>
+        <v>82.22490725180506</v>
       </c>
       <c r="D10" t="n">
-        <v>3.018612860732445</v>
+        <v>3.041675182699686</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.73458237109567</v>
+        <v>81.35395368231887</v>
       </c>
       <c r="D11" t="n">
-        <v>3.038968120845143</v>
+        <v>2.995584780506622</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.2000477806028</v>
+        <v>79.5901756941504</v>
       </c>
       <c r="D12" t="n">
-        <v>3.237388589169387</v>
+        <v>3.08822445772519</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.742824898473</v>
+        <v>78.67168017894087</v>
       </c>
       <c r="D13" t="n">
-        <v>3.245190018951823</v>
+        <v>3.150975150095043</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.60774618939499</v>
+        <v>77.80931230445499</v>
       </c>
       <c r="D14" t="n">
-        <v>3.087340348614562</v>
+        <v>3.367585475705279</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.34773271920767</v>
+        <v>76.11453517990853</v>
       </c>
       <c r="D15" t="n">
-        <v>3.564503584967029</v>
+        <v>2.910184952009478</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.78538789669578</v>
+        <v>75.90909562420106</v>
       </c>
       <c r="D16" t="n">
-        <v>2.937368178660033</v>
+        <v>3.404432660912995</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.98105393395952</v>
+        <v>75.04365240696112</v>
       </c>
       <c r="D17" t="n">
-        <v>3.534947128998956</v>
+        <v>3.007075812904877</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.90603738467198</v>
+        <v>73.71658573983358</v>
       </c>
       <c r="D18" t="n">
-        <v>2.999143399036037</v>
+        <v>3.186937176426036</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.51054645058298</v>
+        <v>73.10708442358511</v>
       </c>
       <c r="D19" t="n">
-        <v>3.645597412513911</v>
+        <v>2.966020163311245</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.76048746278192</v>
+        <v>71.98853423269146</v>
       </c>
       <c r="D20" t="n">
-        <v>3.561087827812494</v>
+        <v>2.958526101722897</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.85242835199537</v>
+        <v>70.30014889605999</v>
       </c>
       <c r="D21" t="n">
-        <v>3.280195330520553</v>
+        <v>2.882995172600096</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.27754433283762</v>
+        <v>70.0814897512994</v>
       </c>
       <c r="D22" t="n">
-        <v>2.757296013573784</v>
+        <v>2.997884450632564</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.14184238277866</v>
+        <v>68.69959691193449</v>
       </c>
       <c r="D23" t="n">
-        <v>3.24348080089569</v>
+        <v>2.978975539692475</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.85539331186391</v>
+        <v>67.66473715633278</v>
       </c>
       <c r="D24" t="n">
-        <v>3.176203258695702</v>
+        <v>3.093955220136143</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.93707334437387</v>
+        <v>66.70164274389479</v>
       </c>
       <c r="D25" t="n">
-        <v>3.332294799240705</v>
+        <v>3.366492663348861</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.02046373972593</v>
+        <v>65.85230842878913</v>
       </c>
       <c r="D26" t="n">
-        <v>3.381612698800158</v>
+        <v>2.797815255342675</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.96773729163009</v>
+        <v>65.29643121143732</v>
       </c>
       <c r="D27" t="n">
-        <v>2.926998258762493</v>
+        <v>3.244812356785307</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.86730482322506</v>
+        <v>63.89174783647562</v>
       </c>
       <c r="D28" t="n">
-        <v>3.260269826033595</v>
+        <v>3.15917736811896</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.81143245956915</v>
+        <v>63.1458752445355</v>
       </c>
       <c r="D29" t="n">
-        <v>3.076482338089177</v>
+        <v>2.94100985666596</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.18942683861246</v>
+        <v>61.7663327842187</v>
       </c>
       <c r="D30" t="n">
-        <v>3.399825697817918</v>
+        <v>3.776480824238371</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.15538111745133</v>
+        <v>60.87935923762698</v>
       </c>
       <c r="D31" t="n">
-        <v>3.397523795982616</v>
+        <v>3.142831249498827</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.73259158480599</v>
+        <v>59.69110378647675</v>
       </c>
       <c r="D32" t="n">
-        <v>3.07917902935437</v>
+        <v>3.153055927256557</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.06759316096529</v>
+        <v>58.69254275929879</v>
       </c>
       <c r="D33" t="n">
-        <v>3.366692685618606</v>
+        <v>3.473290570624279</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.1425359142718</v>
+        <v>58.21760682968053</v>
       </c>
       <c r="D34" t="n">
-        <v>3.075919964529277</v>
+        <v>3.368794444214746</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.64628592549456</v>
+        <v>57.21175414221816</v>
       </c>
       <c r="D35" t="n">
-        <v>3.29487640884027</v>
+        <v>3.280985750470257</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.13951353547181</v>
+        <v>55.55785406793711</v>
       </c>
       <c r="D36" t="n">
-        <v>3.316591521819134</v>
+        <v>2.972674135345642</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.91599382712667</v>
+        <v>54.47171919240814</v>
       </c>
       <c r="D37" t="n">
-        <v>3.866093677318438</v>
+        <v>3.790531899524048</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.3232317052405</v>
+        <v>54.31864037083321</v>
       </c>
       <c r="D38" t="n">
-        <v>3.518947457195461</v>
+        <v>3.269531843974932</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.96418694647313</v>
+        <v>53.20503772969092</v>
       </c>
       <c r="D39" t="n">
-        <v>3.373753537237015</v>
+        <v>3.134065436040296</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.16212806638645</v>
+        <v>52.07745074525147</v>
       </c>
       <c r="D40" t="n">
-        <v>3.215513453146597</v>
+        <v>2.92791462373023</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.04687528540419</v>
+        <v>50.55776566887316</v>
       </c>
       <c r="D41" t="n">
-        <v>3.262778502591706</v>
+        <v>2.987428623907814</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.08369767950652</v>
+        <v>50.09740634089359</v>
       </c>
       <c r="D42" t="n">
-        <v>3.547996870337705</v>
+        <v>3.315230930082255</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.69950096671673</v>
+        <v>48.14297213642168</v>
       </c>
       <c r="D43" t="n">
-        <v>3.142445765551993</v>
+        <v>3.025348694258953</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.86524316791328</v>
+        <v>47.82562143041019</v>
       </c>
       <c r="D44" t="n">
-        <v>3.52894771303084</v>
+        <v>2.926072620110677</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.65320793473123</v>
+        <v>47.78064828398338</v>
       </c>
       <c r="D45" t="n">
-        <v>3.799228552216473</v>
+        <v>2.648731766377805</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.64579490891639</v>
+        <v>46.22094646315014</v>
       </c>
       <c r="D46" t="n">
-        <v>3.178126287703635</v>
+        <v>3.24575135532119</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.02292787976153</v>
+        <v>44.78433493237704</v>
       </c>
       <c r="D47" t="n">
-        <v>3.072035835517853</v>
+        <v>3.389555820687603</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.17106104949428</v>
+        <v>44.2383392307424</v>
       </c>
       <c r="D48" t="n">
-        <v>3.355186209883608</v>
+        <v>3.461402725669879</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.31232547420407</v>
+        <v>42.69994628682523</v>
       </c>
       <c r="D49" t="n">
-        <v>3.070316301712352</v>
+        <v>3.400497676569027</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.5454623821561</v>
+        <v>41.79747447010759</v>
       </c>
       <c r="D50" t="n">
-        <v>3.300080933652756</v>
+        <v>3.578698283081885</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.83306103751807</v>
+        <v>40.92706936916158</v>
       </c>
       <c r="D51" t="n">
-        <v>2.878764950060168</v>
+        <v>3.287023815450755</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.93174936518582</v>
+        <v>40.41585512162036</v>
       </c>
       <c r="D52" t="n">
-        <v>3.295893644542357</v>
+        <v>3.038779343984042</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.8864418483626</v>
+        <v>38.76955651632942</v>
       </c>
       <c r="D53" t="n">
-        <v>3.358578876358905</v>
+        <v>3.427058744702334</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.24348993725706</v>
+        <v>38.59480829924622</v>
       </c>
       <c r="D54" t="n">
-        <v>3.149994461761487</v>
+        <v>3.139896348860711</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.45108364208119</v>
+        <v>36.26134913960184</v>
       </c>
       <c r="D55" t="n">
-        <v>3.800103083528046</v>
+        <v>3.234555943435363</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.95119943968247</v>
+        <v>36.18871653220291</v>
       </c>
       <c r="D56" t="n">
-        <v>3.265587365927369</v>
+        <v>3.119254747427617</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.94664657361853</v>
+        <v>35.0171504569706</v>
       </c>
       <c r="D57" t="n">
-        <v>3.488677378260534</v>
+        <v>3.331494962179342</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.13723404225146</v>
+        <v>34.38935629589922</v>
       </c>
       <c r="D58" t="n">
-        <v>3.310812204302992</v>
+        <v>3.072706899083533</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.29926649031784</v>
+        <v>33.65808730123496</v>
       </c>
       <c r="D59" t="n">
-        <v>3.276762060391501</v>
+        <v>3.244975352543055</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.54046622716521</v>
+        <v>31.88235844573738</v>
       </c>
       <c r="D60" t="n">
-        <v>3.674527459406673</v>
+        <v>3.125029439363965</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.29208402377902</v>
+        <v>31.17153868743642</v>
       </c>
       <c r="D61" t="n">
-        <v>3.170203393643437</v>
+        <v>3.138173209102677</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.11932086024218</v>
+        <v>29.91795059400931</v>
       </c>
       <c r="D62" t="n">
-        <v>3.182511711990347</v>
+        <v>3.18859489670147</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.07086087293185</v>
+        <v>28.74400201130498</v>
       </c>
       <c r="D63" t="n">
-        <v>3.097339535429986</v>
+        <v>3.350648316473492</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.91939824357769</v>
+        <v>28.65575395006448</v>
       </c>
       <c r="D64" t="n">
-        <v>3.485950114891909</v>
+        <v>3.506726972852016</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.67902518685884</v>
+        <v>26.78994969882702</v>
       </c>
       <c r="D65" t="n">
-        <v>3.641688198982368</v>
+        <v>3.593254905187366</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.14569489950562</v>
+        <v>26.1685242080139</v>
       </c>
       <c r="D66" t="n">
-        <v>3.46346551848527</v>
+        <v>3.687582683849847</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.79384596155344</v>
+        <v>24.74720299718804</v>
       </c>
       <c r="D67" t="n">
-        <v>3.490719794209542</v>
+        <v>3.220993651479823</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.82424725360137</v>
+        <v>23.64829892051297</v>
       </c>
       <c r="D68" t="n">
-        <v>3.438671798816569</v>
+        <v>3.477213642820451</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.09277081082476</v>
+        <v>22.71763781588924</v>
       </c>
       <c r="D69" t="n">
-        <v>3.253525810161912</v>
+        <v>3.154229043767534</v>
       </c>
     </row>
   </sheetData>
